--- a/doc/bd schema/bdClimato.xlsx
+++ b/doc/bd schema/bdClimato.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/projects/bd-climato/doc/bd schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016316BB-E23A-C04D-8B4B-4A69769E396C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9327C-A183-144C-84D0-F7EDBB0EA178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{3E94E088-A2CF-E249-BF69-1D6372C23B89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data bdClimato" sheetId="1" r:id="rId1"/>
+    <sheet name="export" sheetId="2" r:id="rId2"/>
+    <sheet name="weewx" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$10:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data bdClimato'!$B$10:$M$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,17 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="368">
-  <si>
-    <t>num_poste</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="480">
   <si>
     <t>dat</t>
   </si>
   <si>
-    <t>datrecu</t>
-  </si>
-  <si>
     <t>detail</t>
   </si>
   <si>
@@ -64,9 +60,6 @@
     <t>Json / Manuel</t>
   </si>
   <si>
-    <t>ref station</t>
-  </si>
-  <si>
     <t>date/heure/mn de la mesure</t>
   </si>
   <si>
@@ -76,9 +69,6 @@
     <t>duree de la mesure</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>Cumul precipitation</t>
   </si>
   <si>
@@ -181,9 +171,6 @@
     <t>PSTAT</t>
   </si>
   <si>
-    <t>HPMERN</t>
-  </si>
-  <si>
     <t>Pression Mer</t>
   </si>
   <si>
@@ -202,33 +189,15 @@
     <t>Rayonnement UV</t>
   </si>
   <si>
-    <t>RAD</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
     <t>moyenne ?</t>
   </si>
   <si>
-    <t>RADX</t>
-  </si>
-  <si>
     <t>Max radiation</t>
   </si>
   <si>
-    <t>HRADX</t>
-  </si>
-  <si>
     <t>Heure max radiation</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>0/1500</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
@@ -250,24 +219,12 @@
     <t>mm/h</t>
   </si>
   <si>
-    <t>HFXY</t>
-  </si>
-  <si>
-    <t>PMERX</t>
-  </si>
-  <si>
     <t>Max Pression</t>
   </si>
   <si>
-    <t>HPMERX</t>
-  </si>
-  <si>
     <t>Heure max pression</t>
   </si>
   <si>
-    <t>PMERN</t>
-  </si>
-  <si>
     <t>mb</t>
   </si>
   <si>
@@ -316,9 +273,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>JSON/Divers</t>
-  </si>
-  <si>
     <t>dat/heure</t>
   </si>
   <si>
@@ -409,9 +363,6 @@
     <t>JSON.current.Barometer</t>
   </si>
   <si>
-    <t>?? Est ce la presssion mer ou station ??</t>
-  </si>
-  <si>
     <t>PMERTDELTA</t>
   </si>
   <si>
@@ -442,9 +393,6 @@
     <t>DDTXT</t>
   </si>
   <si>
-    <t>JSON.curret.windDirText</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -652,9 +600,6 @@
     <t>DewPoint</t>
   </si>
   <si>
-    <t>DW</t>
-  </si>
-  <si>
     <t>DWX</t>
   </si>
   <si>
@@ -715,12 +660,6 @@
     <t>JSON.smn.BarometerMinTime</t>
   </si>
   <si>
-    <t>RADN</t>
-  </si>
-  <si>
-    <t>RDNN</t>
-  </si>
-  <si>
     <t>MIN Radiation</t>
   </si>
   <si>
@@ -1046,10 +985,6 @@
   </si>
   <si>
     <t>"year" : {</t>
-  </si>
-  <si>
-    <t>JSON - can we get this info ?
-Somme duree = indice fiabilite</t>
   </si>
   <si>
     <t>Records</t>
@@ -1144,13 +1079,515 @@
   <si>
     <t>snm=si date &gt; last date updated -&gt; update
 voir si reprise sur yesterday fait sens…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR1,TN,TX,DD,FF en m/s, DXI,FXI en m/s, PMERMIN en hPa (intéressant en cas de cyclone). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> envoi quotidien données horaires 08h-07h </t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>barometer</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>altimeter</t>
+  </si>
+  <si>
+    <t>inTemp</t>
+  </si>
+  <si>
+    <t>outTemp</t>
+  </si>
+  <si>
+    <t>inHumidity</t>
+  </si>
+  <si>
+    <t>outHumidity</t>
+  </si>
+  <si>
+    <t>windSpeed</t>
+  </si>
+  <si>
+    <t>windDir</t>
+  </si>
+  <si>
+    <t>windGust</t>
+  </si>
+  <si>
+    <t>windGustDir</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>rainRate</t>
+  </si>
+  <si>
+    <t>dewpoint</t>
+  </si>
+  <si>
+    <t>windchill</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>extraTemp1</t>
+  </si>
+  <si>
+    <t>extraTemp2</t>
+  </si>
+  <si>
+    <t>extraTemp3</t>
+  </si>
+  <si>
+    <t>soilTemp1</t>
+  </si>
+  <si>
+    <t>soilTemp2</t>
+  </si>
+  <si>
+    <t>soilTemp3</t>
+  </si>
+  <si>
+    <t>soilTemp4</t>
+  </si>
+  <si>
+    <t>leafTemp1</t>
+  </si>
+  <si>
+    <t>leafTemp2</t>
+  </si>
+  <si>
+    <t>extraHumid1</t>
+  </si>
+  <si>
+    <t>extraHumid2</t>
+  </si>
+  <si>
+    <t>soilMoist1</t>
+  </si>
+  <si>
+    <t>soilMoist2</t>
+  </si>
+  <si>
+    <t>soilMoist3</t>
+  </si>
+  <si>
+    <t>soilMoist4</t>
+  </si>
+  <si>
+    <t>leafWet1</t>
+  </si>
+  <si>
+    <t>leafWet2</t>
+  </si>
+  <si>
+    <t>txBatteryStatus</t>
+  </si>
+  <si>
+    <t>consBatteryVoltage</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates data provided by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ardware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates data calculated by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>river</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates data calculated by the StdWXCalculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ervice</t>
+    </r>
+  </si>
+  <si>
+    <t>sea level pressure</t>
+  </si>
+  <si>
+    <t>station pressure</t>
+  </si>
+  <si>
+    <t>QNH</t>
+  </si>
+  <si>
+    <t>station pressure corrected</t>
+  </si>
+  <si>
+    <t>QFE</t>
+  </si>
+  <si>
+    <t>QFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usUnits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval </t>
+  </si>
+  <si>
+    <t xml:space="preserve">barometer        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">altimeter        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inTemp           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outTemp          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inHumidity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outHumidity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windSpeed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windDir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windGust </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windGustDir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainRate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dewpoint         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windchill        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatindex        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">radiation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraTemp1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraTemp2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraTemp3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilTemp1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilTemp2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilTemp3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilTemp4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafTemp1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafTemp2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraHumid1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraHumid2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilMoist1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilMoist2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilMoist3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soilMoist4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafWet1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafWet2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxCheckPercent   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">txBatteryStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consBatteryVoltage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hailRate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatingTemp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatingVoltage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplyVoltage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">referenceVoltage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">windBatteryStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainBatteryStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outTempBatteryStatus </t>
+  </si>
+  <si>
+    <t>inTempBatteryStatus</t>
+  </si>
+  <si>
+    <t>WeeWX</t>
+  </si>
+  <si>
+    <t>VP2</t>
+  </si>
+  <si>
+    <t>FormatMF</t>
+  </si>
+  <si>
+    <t>poste_id</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>JSON - can we get this info ?
+Somme duree =&gt; indice fiabilite + detection trous</t>
+  </si>
+  <si>
+    <t>datmaj</t>
+  </si>
+  <si>
+    <t>Date mise a jour</t>
+  </si>
+  <si>
+    <t>FXY</t>
+  </si>
+  <si>
+    <t>DXY</t>
+  </si>
+  <si>
+    <t>HXY</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Difference avec FXY ???</t>
+  </si>
+  <si>
+    <t>JSON.current.windDirText</t>
+  </si>
+  <si>
+    <t>JSON.current.Pressure</t>
+  </si>
+  <si>
+    <t>PMERMIN</t>
+  </si>
+  <si>
+    <t>UV_INDICE</t>
+  </si>
+  <si>
+    <t>UV2</t>
+  </si>
+  <si>
+    <t>rayonnement UTC</t>
+  </si>
+  <si>
+    <t>Rayonnement TSV</t>
+  </si>
+  <si>
+    <t>Check unite (w/s vs j/s pour meteoFR…)</t>
+  </si>
+  <si>
+    <t>watt/m2</t>
+  </si>
+  <si>
+    <t>0/12</t>
+  </si>
+  <si>
+    <t>noir/bold = code meteoFR, rouge = code meteor.oi</t>
+  </si>
+  <si>
+    <t>PMERMAX</t>
+  </si>
+  <si>
+    <t>HPMERMAX</t>
+  </si>
+  <si>
+    <t>HPMERMIN</t>
+  </si>
+  <si>
+    <t>UVIMAX</t>
+  </si>
+  <si>
+    <t>HUVIMAX</t>
+  </si>
+  <si>
+    <t>UVIMIN</t>
+  </si>
+  <si>
+    <t>HUVIMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; on a tout !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1217,6 +1654,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1232,7 +1746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1455,11 +1969,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1521,9 +2074,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464C27D-06B2-254E-B8C8-FDF2E93715CF}">
-  <dimension ref="B1:M101"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,2439 +2454,3456 @@
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" customWidth="1"/>
+    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="C2" s="30" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" s="22"/>
       <c r="D3" s="25" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="22"/>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C5" s="22"/>
       <c r="D5" s="25" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="D6" s="25" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="23"/>
       <c r="D7" s="26" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="F8" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" ht="69" x14ac:dyDescent="0.25">
+      <c r="G8" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
+        <v>471</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="23" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="23" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>93</v>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="35" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="35" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>12</v>
+      <c r="L16" s="7"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>348</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>168</v>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>63</v>
+        <v>283</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>98</v>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B19" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>98</v>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>142</v>
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B20" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>98</v>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B21" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>98</v>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B22" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>98</v>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>149</v>
+        <v>82</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B23" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>98</v>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>284</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B26" s="55"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="L26" s="7"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B27" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>269</v>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>133</v>
+        <v>248</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="55" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>269</v>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
-        <v>135</v>
+        <v>248</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="55" t="s">
+        <v>117</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>98</v>
+      <c r="E30" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="11" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="55" t="s">
+        <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>98</v>
+      <c r="E31" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="57" t="s">
+        <v>456</v>
+      </c>
       <c r="C32" s="6" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="s">
-        <v>270</v>
-      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="57" t="s">
+        <v>457</v>
+      </c>
       <c r="C33" s="6" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="s">
-        <v>312</v>
-      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>70</v>
+        <v>289</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="57" t="s">
+        <v>458</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="55"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
+      <c r="L35" s="7"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="D38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="55"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>114</v>
+      <c r="L41" s="7"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>168</v>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="55"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>281</v>
-      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="6" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>98</v>
+        <v>260</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="55"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="6" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>98</v>
+        <v>261</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="55"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
-        <v>283</v>
-      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="6" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>98</v>
+        <v>262</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="55"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>284</v>
-      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="6" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>98</v>
+        <v>263</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="55"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
+      <c r="L47" s="7"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="s">
+      <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7" t="s">
-        <v>194</v>
-      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="55"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="s">
-        <v>45</v>
+      <c r="L54" s="7"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="57" t="s">
+        <v>41</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>168</v>
+        <v>61</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="11" t="s">
-        <v>124</v>
+        <v>150</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="55" t="s">
+        <v>107</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>98</v>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>98</v>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="11" t="s">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" s="57" t="s">
+        <v>42</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="11" t="s">
-        <v>71</v>
+      <c r="L58" s="7"/>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" s="55" t="s">
+        <v>472</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7" t="s">
-        <v>217</v>
-      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
       <c r="H59" s="7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
-        <v>73</v>
+        <v>279</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60" s="55" t="s">
+        <v>473</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
       <c r="H60" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="11" t="s">
-        <v>75</v>
+        <v>280</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="57" t="s">
+        <v>463</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="11" t="s">
-        <v>47</v>
+        <v>281</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B62" s="55" t="s">
+        <v>474</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
       <c r="H62" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
+        <v>282</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="55"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="11" t="s">
-        <v>52</v>
+      <c r="L63" s="7"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B64" s="57" t="s">
+        <v>464</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>168</v>
+        <v>49</v>
+      </c>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B65" s="55" t="s">
+        <v>475</v>
+      </c>
       <c r="C65" s="6" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J65" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="K65" s="7"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="11"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B66" s="55" t="s">
+        <v>476</v>
+      </c>
       <c r="C66" s="6" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="K66" s="7"/>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67" s="55" t="s">
+        <v>477</v>
+      </c>
       <c r="C67" s="6" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
       <c r="H67" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="J67" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="K67" s="7"/>
-      <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B68" s="55" t="s">
+        <v>478</v>
+      </c>
       <c r="C68" s="6" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J68" s="7"/>
+        <v>216</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="K68" s="7"/>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="11"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="55"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="11" t="s">
-        <v>54</v>
+      <c r="L69" s="7"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B70" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>62</v>
+        <v>469</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="11" t="s">
-        <v>57</v>
+        <v>468</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="57" t="s">
+        <v>465</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>242</v>
+        <v>469</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="11" t="s">
-        <v>59</v>
+        <v>150</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="7" t="s">
-        <v>243</v>
-      </c>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
       <c r="H72" s="7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J72" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="K72" s="7"/>
-      <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
-        <v>225</v>
+      <c r="L72" s="7"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B74" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B75" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="11"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="L75" s="7"/>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76" s="55"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
-        <v>181</v>
+      <c r="L76" s="7"/>
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="11" t="s">
-        <v>182</v>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78" s="55" t="s">
+        <v>163</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>186</v>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="12"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="11" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" s="55" t="s">
+        <v>164</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J79" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="K79" s="7"/>
-      <c r="L79" s="12"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="11"/>
-      <c r="C80" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="12"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B81" s="55"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="11" t="s">
-        <v>28</v>
+      <c r="B82" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>100</v>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>357</v>
+        <v>150</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="11" t="s">
-        <v>32</v>
+      <c r="B83" s="55" t="s">
+        <v>24</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>172</v>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>358</v>
+        <v>273</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="11"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="12"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H85" s="7"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="12"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="12"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="11" t="s">
-        <v>205</v>
+      <c r="B86" s="57" t="s">
+        <v>459</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>209</v>
-      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="12"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="11" t="s">
-        <v>206</v>
+      <c r="B87" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
       <c r="H87" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J87" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="K87" s="7"/>
-      <c r="L87" s="12"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="12"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="11" t="s">
-        <v>207</v>
+      <c r="B88" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
       <c r="H88" s="9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J88" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="K88" s="7"/>
-      <c r="L88" s="12"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="12"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="11" t="s">
-        <v>208</v>
+      <c r="B89" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
       <c r="H89" s="9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J89" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="K89" s="7"/>
-      <c r="L89" s="12"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="12"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B90" s="11"/>
-      <c r="C90" s="6"/>
+      <c r="B90" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="7"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="K90" s="7"/>
-      <c r="L90" s="12"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="12"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B91" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B91" s="55"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J91" s="7"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="12"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="12"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="11"/>
-      <c r="C92" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="B92" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>254</v>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="J92" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="K92" s="7"/>
-      <c r="L92" s="12"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="12"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="11"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="6" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="J93" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="K93" s="7"/>
-      <c r="L93" s="12"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="12"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="11"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="6" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
       <c r="H94" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J94" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="K94" s="7"/>
-      <c r="L94" s="12"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="12"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="11"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="6" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
       <c r="H95" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J95" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="K95" s="7"/>
-      <c r="L95" s="12"/>
-    </row>
-    <row r="96" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B96" s="11"/>
-      <c r="C96" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="12"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B96" s="55"/>
+      <c r="C96" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="12"/>
+    </row>
+    <row r="97" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B97" s="55"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="7"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="7"/>
-      <c r="J97" s="10"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="10"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B98" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B98" s="55"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="7"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="10"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="10"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
-        <v>81</v>
+      <c r="L98" s="10"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B99" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="7"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="10"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="10"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="2:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
-        <v>83</v>
+      <c r="L99" s="10"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B100" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="7"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="7"/>
-      <c r="J100" s="10"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="10"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="18"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="2:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="B101" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="56"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002EF782-437E-4544-B861-3DDF04A181EB}">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+    </row>
+    <row r="6" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B6" s="60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7E5671-E4C9-484E-8F6D-0C89A0E069DB}">
+  <dimension ref="B2:M60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="G2" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B19" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B20" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B42" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="44" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="44"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="50" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="44"/>
+    </row>
+    <row r="51" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="44"/>
+    </row>
+    <row r="52" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="44"/>
+    </row>
+    <row r="53" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="44"/>
+    </row>
+    <row r="54" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+    </row>
+    <row r="57" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>